--- a/biology/Médecine/Examen_clinique_neurologique/Examen_clinique_neurologique.xlsx
+++ b/biology/Médecine/Examen_clinique_neurologique/Examen_clinique_neurologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen clinique neurologique est en médecine une partie de l'examen clinique évaluant les fonctions du système nerveux chez un patient.
-Les objectifs de l'examen neurologique[1] sont multiples :
+Les objectifs de l'examen neurologique sont multiples :
 Pour les patients présentant des symptômes évocateurs de troubles neurologiques, l'examen devrait :
 déterminer, sur la base d'un examen structuré et approfondi, s'il y a des dysfonctions neurologiques ;
 identifier le ou les structure(s) du système neurologique qui sont affectés ;
@@ -526,16 +538,52 @@
           <t>Vigilance et fonctions cognitives</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étude de la conscience, en utilisant le score de Glasgow chez les patients comateux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'étude de la conscience, en utilisant le score de Glasgow chez les patients comateux.
 La recherche d'un syndrome confusionnel.
 Le test de la mémoire.
 Le Mini Mental State, un test pour rechercher des signes de démence.
 Les apraxies.
-Les agnosies.
-Langage
-Pour évaluer le langage du patient[2], il faut tester :
+Les agnosies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vigilance et fonctions cognitives</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Langage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour évaluer le langage du patient, il faut tester :
 La compréhension auditive : la compréhension des mots, des questions, etc.
 L'expression verbale : la production de séquences automatiques (par exemple, les jours de la semaine), la dénomination d'objets, la description d'images, de répondre aux questions.
 La lecture et l'écriture : la compréhension ou l'écriture de lettres, de mots, de phrases et de paragraphes.
@@ -545,31 +593,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Examen_clinique_neurologique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Examen_clinique_neurologique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Motricité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Étude de la marche (recherche d'une ataxie), de la station debout (recherche du signe de Romberg) et de l'équilibre (recherche d'un nystagmus).
 Recherche d'une parésie en faisant marcher sur les talons ou sur la pointe des pieds.
@@ -581,37 +631,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Examen_clinique_neurologique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Examen_clinique_neurologique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Réflexe</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les réflexes ostéotendineux : masséter, les tendons des biceps et triceps, les tendons des rotules, le réflexe achiléen. Un réflexe vif suggère une anomalie de la voie pyramidale (motoneurone supérieur), alors que des réflexes diminués suggèrent une anomalie de la corne antérieure (motoneurone inférieur), du nerf périphérique ou de la jonction neuromusculaire. Un marteau à réflexes est utilisé pour ces tests.
-Les réflexes cutanés, dont le réflexe cutané plantaire.</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -633,13 +652,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sensibilité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sensibilité, ce test contrôle le toucher fin, la proprioception, la douleur et la température, la pallesthésie.
-</t>
+          <t>Réflexe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les réflexes ostéotendineux : masséter, les tendons des biceps et triceps, les tendons des rotules, le réflexe achiléen. Un réflexe vif suggère une anomalie de la voie pyramidale (motoneurone supérieur), alors que des réflexes diminués suggèrent une anomalie de la corne antérieure (motoneurone inférieur), du nerf périphérique ou de la jonction neuromusculaire. Un marteau à réflexes est utilisé pour ces tests.
+Les réflexes cutanés, dont le réflexe cutané plantaire.</t>
         </is>
       </c>
     </row>
@@ -664,25 +685,236 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Sensibilité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sensibilité, ce test contrôle le toucher fin, la proprioception, la douleur et la température, la pallesthésie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Nerfs crâniens</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nerf olfactif (I)
-Évaluer la perméabilité des voies nasales bilatéralement en demandant au patient de respirer par le nez alors que l'examinateur couvre une narine à la fois. Une fois que la perméabilité est établie, demander au patient de fermer les yeux. Obturer une narine, et placer un élément d'une certaine odeur (menthe, café, etc.) près de la narine du patient et demander lui de sentir l'objet et signaler ce qu'il est. Rendre certains que les yeux du patient restent fermés. Mettez les narines et répéter. En outre, demander au patient de comparer la force de l'odeur dans chaque narine[3],[4].
-Nerf optique (II)
-L'examen du nerf optique comprend l'examen du champ visuel et de l'acuité visuelle de chaque œil, ainsi que l'examen du fond d'œil avec l'ophtalmoscope.
-Nerfs oculomoteurs (III, IV, VI)
-La position et la mobilité des globes oculaires et des paupières, ainsi que les réactions des pupilles sont examinées.
-Nerf trijumeaux (V)
-Pour évaluer le nerf trijumeau, la sensibilité de la  face au toucher et les mouvements de la mandibule sont examinés.
-Nerf facial (VII)
-Pour examiner la fonction du nerf facial qui innerve les muscles mimiques, il est généralement recommandé au patient de froncer les sourcils, de fermer les yeux et de sourire, c'est-à-dire examine l'expression du visage.
-Nerf vestibulaire (VIII)
-Nerf accessoire (XI)
-Nerf hypoglosse (XII)
-Pour examiner la fonction du nerf hypoglosse, qui innerve les muscles de la langue, la capacité à bouger la langue dans toutes les directions est examinée.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nerf olfactif (I)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Évaluer la perméabilité des voies nasales bilatéralement en demandant au patient de respirer par le nez alors que l'examinateur couvre une narine à la fois. Une fois que la perméabilité est établie, demander au patient de fermer les yeux. Obturer une narine, et placer un élément d'une certaine odeur (menthe, café, etc.) près de la narine du patient et demander lui de sentir l'objet et signaler ce qu'il est. Rendre certains que les yeux du patient restent fermés. Mettez les narines et répéter. En outre, demander au patient de comparer la force de l'odeur dans chaque narine,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nerfs crâniens</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nerf optique (II)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'examen du nerf optique comprend l'examen du champ visuel et de l'acuité visuelle de chaque œil, ainsi que l'examen du fond d'œil avec l'ophtalmoscope.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nerfs crâniens</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nerfs oculomoteurs (III, IV, VI)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La position et la mobilité des globes oculaires et des paupières, ainsi que les réactions des pupilles sont examinées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nerfs crâniens</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nerf trijumeaux (V)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour évaluer le nerf trijumeau, la sensibilité de la  face au toucher et les mouvements de la mandibule sont examinés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Nerfs crâniens</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nerf facial (VII)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour examiner la fonction du nerf facial qui innerve les muscles mimiques, il est généralement recommandé au patient de froncer les sourcils, de fermer les yeux et de sourire, c'est-à-dire examine l'expression du visage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_neurologique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Nerfs crâniens</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nerf hypoglosse (XII)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour examiner la fonction du nerf hypoglosse, qui innerve les muscles de la langue, la capacité à bouger la langue dans toutes les directions est examinée.
 </t>
         </is>
       </c>
